--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3990.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3990.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.284497086706844</v>
+        <v>0.7996079921722412</v>
       </c>
       <c r="B1">
-        <v>2.734518003815881</v>
+        <v>1.715750694274902</v>
       </c>
       <c r="C1">
-        <v>4.719770050577833</v>
+        <v>4.790500640869141</v>
       </c>
       <c r="D1">
-        <v>3.309658778392555</v>
+        <v>5.086749076843262</v>
       </c>
       <c r="E1">
-        <v>1.31595636243041</v>
+        <v>1.767454147338867</v>
       </c>
     </row>
   </sheetData>
